--- a/documentation/ElaborazioneDati.xlsx
+++ b/documentation/ElaborazioneDati.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattiamarilli/Progetti/unifi_phd/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCF035E-CCFA-D74A-A3F0-49961CCD1DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D71029F-436E-744C-85DE-F737E99AD2AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{C1D505A6-7FF6-614C-B591-4287D7F8952C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
   <si>
     <t>Progress Report</t>
   </si>
@@ -49,6 +49,18 @@
   </si>
   <si>
     <t>Didactic Offer</t>
+  </si>
+  <si>
+    <t>OC</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>TA</t>
   </si>
 </sst>
 </file>
@@ -925,7 +937,3015 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metrica 4'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Progress Report</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Metrica 4'!$B$5:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Metrica 4'!$B$6:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>21.649999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.974999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.008333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.30833333333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52.708333333333336</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66.291666666666671</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52.058333333333337</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>126.07499999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>163.64166666666665</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1B55-0F41-BFF6-3CC996BC86A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metrica 4'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Organization Chart</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Metrica 4'!$B$5:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Metrica 4'!$B$7:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>52.470000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>104.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>176.14000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>261.19999999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>361.50499999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>496.625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>732.31999999999994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1077.8250000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1440.2850000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1679.1349999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1B55-0F41-BFF6-3CC996BC86A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metrica 4'!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Thesis Approvation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Metrica 4'!$B$5:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Metrica 4'!$B$8:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>24.893749999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.475000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.193749999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.075000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.362499999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.662500000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.918750000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.162500000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.793749999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.331250000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1B55-0F41-BFF6-3CC996BC86A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metrica 4'!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Didactic Offer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Metrica 4'!$B$5:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Metrica 4'!$B$9:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>19.113793103448273</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.144827586206894</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.682758620689658</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.689655172413794</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37.403448275862075</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46.841379310344834</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48.62068965517242</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>66.413793103448285</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>64.710344827586212</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>94.18275862068964</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1B55-0F41-BFF6-3CC996BC86A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="652537008"/>
+        <c:axId val="652525824"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="652537008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="652525824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="652525824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="652537008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metrica 4'!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Progress Report</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Metrica 4'!$B$18:$K$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Metrica 4'!$B$19:$K$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>16.175000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.991666666666671</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.741666666666664</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.575000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.091666666666672</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.674999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.641666666666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.866666666666667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.733333333333331</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E1E8-ED4A-A973-1B77207B406A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metrica 4'!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Organization Chart</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Metrica 4'!$B$18:$K$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Metrica 4'!$B$20:$K$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>23.91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.474999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.615000000000009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43.794999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.069999999999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>86.64500000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>105.28500000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>153.10499999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>158.55500000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>222.215</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E1E8-ED4A-A973-1B77207B406A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metrica 4'!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Thesis Approvation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Metrica 4'!$B$18:$K$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Metrica 4'!$B$21:$K$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.6875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.462499999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.362500000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.043749999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.525000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.668750000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.274999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E1E8-ED4A-A973-1B77207B406A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metrica 4'!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Didactic Offer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Metrica 4'!$B$18:$K$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Metrica 4'!$B$22:$K$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>52.048275862068962</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.93793103448273</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>154.07586206896551</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>221.35517241379307</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>316.69655172413798</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>405.72068965517246</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>568.1241379310344</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>867.56206896551714</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>942.56551724137944</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1299.6793103448272</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E1E8-ED4A-A973-1B77207B406A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="711684256"/>
+        <c:axId val="711654560"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="711684256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="711654560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="711654560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="711684256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metrica 4'!$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Progress Report</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Metrica 4'!$B$30:$K$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Metrica 4'!$B$31:$K$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>58.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.94999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>156.95833333333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>227.90833333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>312.48333333333329</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>404.10833333333335</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>541.78333333333342</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>752.91666666666663</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>916.24166666666645</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1237.325</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1861-1E4F-9B57-0630D64BD821}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metrica 4'!$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Organization Chart</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Metrica 4'!$B$30:$K$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Metrica 4'!$B$32:$K$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>26.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.74</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.905000000000015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44.86</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61.015000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85.324999999999974</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>110.40000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>144.095</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>144.60500000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>201.73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1861-1E4F-9B57-0630D64BD821}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metrica 4'!$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Thesis Approvation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Metrica 4'!$B$30:$K$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Metrica 4'!$B$33:$K$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>25.612500000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.431250000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.21875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.912499999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.068750000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.212500000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.875000000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25.381250000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.624999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.643750000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1861-1E4F-9B57-0630D64BD821}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metrica 4'!$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Didactic Offer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Metrica 4'!$B$30:$K$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Metrica 4'!$B$34:$K$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>19.996153846153845</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.623076923076926</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.069230769230764</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.03846153846154</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.746153846153849</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.803846153846152</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.853846153846153</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.142307692307696</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.953846153846154</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.130769230769232</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1861-1E4F-9B57-0630D64BD821}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="711759776"/>
+        <c:axId val="711761504"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="711759776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="711761504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="711761504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="711759776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metrica 4'!$A$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Progress Report</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Metrica 4'!$B$40:$K$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Metrica 4'!$B$41:$K$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>19.741666666666664</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.291666666666664</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.749999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.650000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.466666666666665</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.033333333333328</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.541666666666668</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.208333333333336</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.675000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0669-404C-8E48-BEC1CBAC761A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metrica 4'!$A$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Organization Chart</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Metrica 4'!$B$40:$K$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Metrica 4'!$B$42:$K$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>25.805</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46.924999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>98.639999999999986</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>129.94499999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>165.78499999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>161.30500000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>268.16999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0669-404C-8E48-BEC1CBAC761A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metrica 4'!$A$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Thesis Approvation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Metrica 4'!$B$40:$K$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Metrica 4'!$B$43:$K$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>58.21875</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>107.39374999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>174.73750000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>246.21250000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>355.43124999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>477.76249999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>629.63750000000016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>919.39374999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1030.5624999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1246.0999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0669-404C-8E48-BEC1CBAC761A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metrica 4'!$A$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Didactic Offer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Metrica 4'!$B$40:$K$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Metrica 4'!$B$44:$K$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>17.462068965517243</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.472413793103449</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.572413793103451</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.831034482758618</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.07931034482759</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.520689655172413</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.186206896551724</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.244827586206902</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.113793103448273</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.334482758620688</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0669-404C-8E48-BEC1CBAC761A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="714678896"/>
+        <c:axId val="714680624"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="714678896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="714680624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="714680624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="714678896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1481,6 +4501,2070 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1514,6 +6598,155 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2279619-62E0-1A6D-4DF4-9F11053DEE56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D88185C0-A3CC-48B2-112A-29B59FDBEC5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F4B68E0-2DAA-0F75-A451-42C9B2B46CF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Grafico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12D7F23B-228C-7B1E-1121-BAC70D7C63BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1822,7 +7055,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2010,12 +7243,727 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF57A835-6286-134B-BF3A-820EEAAABE82}">
-  <dimension ref="A1"/>
+  <dimension ref="A4:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>60</v>
+      </c>
+      <c r="D5">
+        <v>90</v>
+      </c>
+      <c r="E5">
+        <v>120</v>
+      </c>
+      <c r="F5">
+        <v>150</v>
+      </c>
+      <c r="G5">
+        <v>180</v>
+      </c>
+      <c r="H5">
+        <v>210</v>
+      </c>
+      <c r="I5">
+        <v>240</v>
+      </c>
+      <c r="J5">
+        <v>270</v>
+      </c>
+      <c r="K5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>21.649999999999995</v>
+      </c>
+      <c r="C6">
+        <v>26.974999999999998</v>
+      </c>
+      <c r="D6">
+        <v>36.008333333333333</v>
+      </c>
+      <c r="E6">
+        <v>28.45</v>
+      </c>
+      <c r="F6">
+        <v>40.30833333333333</v>
+      </c>
+      <c r="G6">
+        <v>52.708333333333336</v>
+      </c>
+      <c r="H6">
+        <v>66.291666666666671</v>
+      </c>
+      <c r="I6">
+        <v>52.058333333333337</v>
+      </c>
+      <c r="J6">
+        <v>126.07499999999999</v>
+      </c>
+      <c r="K6">
+        <v>163.64166666666665</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>52.470000000000006</v>
+      </c>
+      <c r="C7">
+        <v>104.05</v>
+      </c>
+      <c r="D7">
+        <v>176.14000000000001</v>
+      </c>
+      <c r="E7">
+        <v>261.19999999999993</v>
+      </c>
+      <c r="F7">
+        <v>361.50499999999994</v>
+      </c>
+      <c r="G7">
+        <v>496.625</v>
+      </c>
+      <c r="H7">
+        <v>732.31999999999994</v>
+      </c>
+      <c r="I7">
+        <v>1077.8250000000003</v>
+      </c>
+      <c r="J7">
+        <v>1440.2850000000003</v>
+      </c>
+      <c r="K7">
+        <v>1679.1349999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>24.893749999999997</v>
+      </c>
+      <c r="C8">
+        <v>21.475000000000001</v>
+      </c>
+      <c r="D8">
+        <v>19.193749999999998</v>
+      </c>
+      <c r="E8">
+        <v>20.075000000000003</v>
+      </c>
+      <c r="F8">
+        <v>20.362499999999997</v>
+      </c>
+      <c r="G8">
+        <v>20.662500000000005</v>
+      </c>
+      <c r="H8">
+        <v>19.918750000000003</v>
+      </c>
+      <c r="I8">
+        <v>19.162500000000001</v>
+      </c>
+      <c r="J8">
+        <v>19.793749999999996</v>
+      </c>
+      <c r="K8">
+        <v>20.331250000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>19.113793103448273</v>
+      </c>
+      <c r="C9">
+        <v>21.144827586206894</v>
+      </c>
+      <c r="D9">
+        <v>29.682758620689658</v>
+      </c>
+      <c r="E9">
+        <v>27.689655172413794</v>
+      </c>
+      <c r="F9">
+        <v>37.403448275862075</v>
+      </c>
+      <c r="G9">
+        <v>46.841379310344834</v>
+      </c>
+      <c r="H9">
+        <v>48.62068965517242</v>
+      </c>
+      <c r="I9">
+        <v>66.413793103448285</v>
+      </c>
+      <c r="J9">
+        <v>64.710344827586212</v>
+      </c>
+      <c r="K9">
+        <v>94.18275862068964</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <v>60</v>
+      </c>
+      <c r="D18">
+        <v>90</v>
+      </c>
+      <c r="E18">
+        <v>120</v>
+      </c>
+      <c r="F18">
+        <v>150</v>
+      </c>
+      <c r="G18">
+        <v>180</v>
+      </c>
+      <c r="H18">
+        <v>210</v>
+      </c>
+      <c r="I18">
+        <v>240</v>
+      </c>
+      <c r="J18">
+        <v>270</v>
+      </c>
+      <c r="K18">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>16.175000000000001</v>
+      </c>
+      <c r="C19">
+        <v>18.991666666666671</v>
+      </c>
+      <c r="D19">
+        <v>16.741666666666664</v>
+      </c>
+      <c r="E19">
+        <v>17.575000000000003</v>
+      </c>
+      <c r="F19">
+        <v>17.091666666666672</v>
+      </c>
+      <c r="G19">
+        <v>17.95</v>
+      </c>
+      <c r="H19">
+        <v>16.674999999999997</v>
+      </c>
+      <c r="I19">
+        <v>18.641666666666666</v>
+      </c>
+      <c r="J19">
+        <v>16.866666666666667</v>
+      </c>
+      <c r="K19">
+        <v>17.733333333333331</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>23.91</v>
+      </c>
+      <c r="C20">
+        <v>32.474999999999994</v>
+      </c>
+      <c r="D20">
+        <v>41.615000000000009</v>
+      </c>
+      <c r="E20">
+        <v>43.794999999999995</v>
+      </c>
+      <c r="F20">
+        <v>60.069999999999993</v>
+      </c>
+      <c r="G20">
+        <v>86.64500000000001</v>
+      </c>
+      <c r="H20">
+        <v>105.28500000000001</v>
+      </c>
+      <c r="I20">
+        <v>153.10499999999999</v>
+      </c>
+      <c r="J20">
+        <v>158.55500000000001</v>
+      </c>
+      <c r="K20">
+        <v>222.215</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="C21">
+        <v>17.125</v>
+      </c>
+      <c r="D21">
+        <v>18.45</v>
+      </c>
+      <c r="E21">
+        <v>16.6875</v>
+      </c>
+      <c r="F21">
+        <v>18.462499999999999</v>
+      </c>
+      <c r="G21">
+        <v>16.362500000000001</v>
+      </c>
+      <c r="H21">
+        <v>18.043749999999999</v>
+      </c>
+      <c r="I21">
+        <v>17.525000000000002</v>
+      </c>
+      <c r="J21">
+        <v>17.668750000000003</v>
+      </c>
+      <c r="K21">
+        <v>17.274999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>52.048275862068962</v>
+      </c>
+      <c r="C22">
+        <v>96.93793103448273</v>
+      </c>
+      <c r="D22">
+        <v>154.07586206896551</v>
+      </c>
+      <c r="E22">
+        <v>221.35517241379307</v>
+      </c>
+      <c r="F22">
+        <v>316.69655172413798</v>
+      </c>
+      <c r="G22">
+        <v>405.72068965517246</v>
+      </c>
+      <c r="H22">
+        <v>568.1241379310344</v>
+      </c>
+      <c r="I22">
+        <v>867.56206896551714</v>
+      </c>
+      <c r="J22">
+        <v>942.56551724137944</v>
+      </c>
+      <c r="K22">
+        <v>1299.6793103448272</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>60</v>
+      </c>
+      <c r="D30">
+        <v>90</v>
+      </c>
+      <c r="E30">
+        <v>120</v>
+      </c>
+      <c r="F30">
+        <v>150</v>
+      </c>
+      <c r="G30">
+        <v>180</v>
+      </c>
+      <c r="H30">
+        <v>210</v>
+      </c>
+      <c r="I30">
+        <v>240</v>
+      </c>
+      <c r="J30">
+        <v>270</v>
+      </c>
+      <c r="K30">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>58.9</v>
+      </c>
+      <c r="C31">
+        <v>100.94999999999999</v>
+      </c>
+      <c r="D31">
+        <v>156.95833333333334</v>
+      </c>
+      <c r="E31">
+        <v>227.90833333333333</v>
+      </c>
+      <c r="F31">
+        <v>312.48333333333329</v>
+      </c>
+      <c r="G31">
+        <v>404.10833333333335</v>
+      </c>
+      <c r="H31">
+        <v>541.78333333333342</v>
+      </c>
+      <c r="I31">
+        <v>752.91666666666663</v>
+      </c>
+      <c r="J31">
+        <v>916.24166666666645</v>
+      </c>
+      <c r="K31">
+        <v>1237.325</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>26.05</v>
+      </c>
+      <c r="C32">
+        <v>32.74</v>
+      </c>
+      <c r="D32">
+        <v>45.905000000000015</v>
+      </c>
+      <c r="E32">
+        <v>44.86</v>
+      </c>
+      <c r="F32">
+        <v>61.015000000000001</v>
+      </c>
+      <c r="G32">
+        <v>85.324999999999974</v>
+      </c>
+      <c r="H32">
+        <v>110.40000000000002</v>
+      </c>
+      <c r="I32">
+        <v>144.095</v>
+      </c>
+      <c r="J32">
+        <v>144.60500000000005</v>
+      </c>
+      <c r="K32">
+        <v>201.73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <v>25.612500000000001</v>
+      </c>
+      <c r="C33">
+        <v>24.431250000000002</v>
+      </c>
+      <c r="D33">
+        <v>28.21875</v>
+      </c>
+      <c r="E33">
+        <v>24.912499999999998</v>
+      </c>
+      <c r="F33">
+        <v>26.068750000000001</v>
+      </c>
+      <c r="G33">
+        <v>27.212500000000002</v>
+      </c>
+      <c r="H33">
+        <v>26.875000000000007</v>
+      </c>
+      <c r="I33">
+        <v>25.381250000000001</v>
+      </c>
+      <c r="J33">
+        <v>24.624999999999996</v>
+      </c>
+      <c r="K33">
+        <v>20.643750000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <v>19.996153846153845</v>
+      </c>
+      <c r="C34">
+        <v>18.623076923076926</v>
+      </c>
+      <c r="D34">
+        <v>17.069230769230764</v>
+      </c>
+      <c r="E34">
+        <v>18.03846153846154</v>
+      </c>
+      <c r="F34">
+        <v>17.746153846153849</v>
+      </c>
+      <c r="G34">
+        <v>18.803846153846152</v>
+      </c>
+      <c r="H34">
+        <v>18.853846153846153</v>
+      </c>
+      <c r="I34">
+        <v>18.142307692307696</v>
+      </c>
+      <c r="J34">
+        <v>18.953846153846154</v>
+      </c>
+      <c r="K34">
+        <v>17.130769230769232</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>30</v>
+      </c>
+      <c r="C40">
+        <v>60</v>
+      </c>
+      <c r="D40">
+        <v>90</v>
+      </c>
+      <c r="E40">
+        <v>120</v>
+      </c>
+      <c r="F40">
+        <v>150</v>
+      </c>
+      <c r="G40">
+        <v>180</v>
+      </c>
+      <c r="H40">
+        <v>210</v>
+      </c>
+      <c r="I40">
+        <v>240</v>
+      </c>
+      <c r="J40">
+        <v>270</v>
+      </c>
+      <c r="K40">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>19.741666666666664</v>
+      </c>
+      <c r="C41">
+        <v>18.291666666666664</v>
+      </c>
+      <c r="D41">
+        <v>18.749999999999996</v>
+      </c>
+      <c r="E41">
+        <v>17.650000000000002</v>
+      </c>
+      <c r="F41">
+        <v>19.466666666666665</v>
+      </c>
+      <c r="G41">
+        <v>19.033333333333328</v>
+      </c>
+      <c r="H41">
+        <v>18.541666666666668</v>
+      </c>
+      <c r="I41">
+        <v>16.208333333333336</v>
+      </c>
+      <c r="J41">
+        <v>17.375</v>
+      </c>
+      <c r="K41">
+        <v>20.675000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>25.805</v>
+      </c>
+      <c r="C42">
+        <v>38.875</v>
+      </c>
+      <c r="D42">
+        <v>46.924999999999997</v>
+      </c>
+      <c r="E42">
+        <v>52.3</v>
+      </c>
+      <c r="F42">
+        <v>68.5</v>
+      </c>
+      <c r="G42">
+        <v>98.639999999999986</v>
+      </c>
+      <c r="H42">
+        <v>129.94499999999999</v>
+      </c>
+      <c r="I42">
+        <v>165.78499999999997</v>
+      </c>
+      <c r="J42">
+        <v>161.30500000000001</v>
+      </c>
+      <c r="K42">
+        <v>268.16999999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43">
+        <v>58.21875</v>
+      </c>
+      <c r="C43">
+        <v>107.39374999999998</v>
+      </c>
+      <c r="D43">
+        <v>174.73750000000004</v>
+      </c>
+      <c r="E43">
+        <v>246.21250000000001</v>
+      </c>
+      <c r="F43">
+        <v>355.43124999999998</v>
+      </c>
+      <c r="G43">
+        <v>477.76249999999999</v>
+      </c>
+      <c r="H43">
+        <v>629.63750000000016</v>
+      </c>
+      <c r="I43">
+        <v>919.39374999999995</v>
+      </c>
+      <c r="J43">
+        <v>1030.5624999999998</v>
+      </c>
+      <c r="K43">
+        <v>1246.0999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44">
+        <v>17.462068965517243</v>
+      </c>
+      <c r="C44">
+        <v>16.472413793103449</v>
+      </c>
+      <c r="D44">
+        <v>16.572413793103451</v>
+      </c>
+      <c r="E44">
+        <v>16.831034482758618</v>
+      </c>
+      <c r="F44">
+        <v>19.07931034482759</v>
+      </c>
+      <c r="G44">
+        <v>15.520689655172413</v>
+      </c>
+      <c r="H44">
+        <v>16.186206896551724</v>
+      </c>
+      <c r="I44">
+        <v>16.244827586206902</v>
+      </c>
+      <c r="J44">
+        <v>18.113793103448273</v>
+      </c>
+      <c r="K44">
+        <v>17.334482758620688</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/documentation/ElaborazioneDati.xlsx
+++ b/documentation/ElaborazioneDati.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattiamarilli/Progetti/unifi_phd/documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giacomoponzuoli/Desktop/unifi_phd/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D71029F-436E-744C-85DE-F737E99AD2AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353B4E76-8E9E-8849-AAE6-5291EE57DF55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{C1D505A6-7FF6-614C-B591-4287D7F8952C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15780" activeTab="1" xr2:uid="{C1D505A6-7FF6-614C-B591-4287D7F8952C}"/>
   </bookViews>
   <sheets>
     <sheet name="Metrica 3" sheetId="1" r:id="rId1"/>
@@ -952,6 +952,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Lag</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> sul microservizio organizationchart</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -992,7 +1022,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Metrica 4'!$A$6</c:f>
+              <c:f>'Metrica 4'!$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1015,7 +1045,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Metrica 4'!$B$5:$K$5</c:f>
+              <c:f>'Metrica 4'!$B$13:$K$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1054,7 +1084,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Metrica 4'!$B$6:$K$6</c:f>
+              <c:f>'Metrica 4'!$B$14:$K$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1103,7 +1133,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Metrica 4'!$A$7</c:f>
+              <c:f>'Metrica 4'!$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1126,7 +1156,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Metrica 4'!$B$5:$K$5</c:f>
+              <c:f>'Metrica 4'!$B$13:$K$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1165,7 +1195,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Metrica 4'!$B$7:$K$7</c:f>
+              <c:f>'Metrica 4'!$B$15:$K$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1214,7 +1244,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Metrica 4'!$A$8</c:f>
+              <c:f>'Metrica 4'!$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1237,7 +1267,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Metrica 4'!$B$5:$K$5</c:f>
+              <c:f>'Metrica 4'!$B$13:$K$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1276,7 +1306,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Metrica 4'!$B$8:$K$8</c:f>
+              <c:f>'Metrica 4'!$B$16:$K$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1284,31 +1314,31 @@
                   <c:v>24.893749999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.475000000000001</c:v>
+                  <c:v>22.475000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.193749999999998</c:v>
+                  <c:v>29.193750000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>20.075000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.362499999999997</c:v>
+                  <c:v>36.362499999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.662500000000005</c:v>
+                  <c:v>40.662500000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.918750000000003</c:v>
+                  <c:v>39.918750000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.162500000000001</c:v>
+                  <c:v>49.162500000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.793749999999996</c:v>
+                  <c:v>49.793750000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.331250000000001</c:v>
+                  <c:v>70.331249999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1325,7 +1355,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Metrica 4'!$A$9</c:f>
+              <c:f>'Metrica 4'!$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1348,7 +1378,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Metrica 4'!$B$5:$K$5</c:f>
+              <c:f>'Metrica 4'!$B$13:$K$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1387,7 +1417,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Metrica 4'!$B$9:$K$9</c:f>
+              <c:f>'Metrica 4'!$B$17:$K$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1453,9 +1483,8 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="0"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1463,6 +1492,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1400"/>
+                  <a:t>Lag (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1485,7 +1569,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1508,6 +1592,8 @@
         <c:axId val="652525824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1800"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1515,9 +1601,8 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="0"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1525,6 +1610,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1400"/>
+                  <a:t>Latenza (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1547,7 +1687,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1565,6 +1705,7 @@
         <c:crossAx val="652537008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="300"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1589,7 +1730,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1664,6 +1805,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Lag sul microservizio didacticoffer</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1704,7 +1870,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Metrica 4'!$A$19</c:f>
+              <c:f>'Metrica 4'!$A$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1727,7 +1893,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Metrica 4'!$B$18:$K$18</c:f>
+              <c:f>'Metrica 4'!$B$32:$K$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1766,7 +1932,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Metrica 4'!$B$19:$K$19</c:f>
+              <c:f>'Metrica 4'!$B$33:$K$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1815,7 +1981,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Metrica 4'!$A$20</c:f>
+              <c:f>'Metrica 4'!$A$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1838,7 +2004,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Metrica 4'!$B$18:$K$18</c:f>
+              <c:f>'Metrica 4'!$B$32:$K$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1877,7 +2043,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Metrica 4'!$B$20:$K$20</c:f>
+              <c:f>'Metrica 4'!$B$34:$K$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1926,7 +2092,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Metrica 4'!$A$21</c:f>
+              <c:f>'Metrica 4'!$A$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1949,7 +2115,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Metrica 4'!$B$18:$K$18</c:f>
+              <c:f>'Metrica 4'!$B$32:$K$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1988,7 +2154,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Metrica 4'!$B$21:$K$21</c:f>
+              <c:f>'Metrica 4'!$B$35:$K$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2037,7 +2203,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Metrica 4'!$A$22</c:f>
+              <c:f>'Metrica 4'!$A$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2060,7 +2226,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Metrica 4'!$B$18:$K$18</c:f>
+              <c:f>'Metrica 4'!$B$32:$K$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2099,7 +2265,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Metrica 4'!$B$22:$K$22</c:f>
+              <c:f>'Metrica 4'!$B$36:$K$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2165,9 +2331,8 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="0"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -2175,6 +2340,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1400"/>
+                  <a:t>Lag (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2197,7 +2417,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2220,6 +2440,8 @@
         <c:axId val="711654560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1400"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2227,9 +2449,8 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="0"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -2237,6 +2458,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1400"/>
+                  <a:t>Latenza</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1400" baseline="0"/>
+                  <a:t> (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2259,7 +2540,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2277,6 +2558,7 @@
         <c:crossAx val="711684256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="300"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2301,7 +2583,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2376,6 +2658,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Lag sul microservizio progressreport</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2416,7 +2723,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Metrica 4'!$A$31</c:f>
+              <c:f>'Metrica 4'!$A$60</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2439,7 +2746,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Metrica 4'!$B$30:$K$30</c:f>
+              <c:f>'Metrica 4'!$B$59:$K$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2478,7 +2785,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Metrica 4'!$B$31:$K$31</c:f>
+              <c:f>'Metrica 4'!$B$60:$K$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2527,7 +2834,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Metrica 4'!$A$32</c:f>
+              <c:f>'Metrica 4'!$A$61</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2550,7 +2857,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Metrica 4'!$B$30:$K$30</c:f>
+              <c:f>'Metrica 4'!$B$59:$K$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2589,7 +2896,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Metrica 4'!$B$32:$K$32</c:f>
+              <c:f>'Metrica 4'!$B$61:$K$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2638,7 +2945,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Metrica 4'!$A$33</c:f>
+              <c:f>'Metrica 4'!$A$62</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2661,7 +2968,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Metrica 4'!$B$30:$K$30</c:f>
+              <c:f>'Metrica 4'!$B$59:$K$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2700,7 +3007,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Metrica 4'!$B$33:$K$33</c:f>
+              <c:f>'Metrica 4'!$B$62:$K$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2749,7 +3056,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Metrica 4'!$A$34</c:f>
+              <c:f>'Metrica 4'!$A$63</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2772,7 +3079,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Metrica 4'!$B$30:$K$30</c:f>
+              <c:f>'Metrica 4'!$B$59:$K$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2811,7 +3118,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Metrica 4'!$B$34:$K$34</c:f>
+              <c:f>'Metrica 4'!$B$63:$K$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2877,9 +3184,8 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="0"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -2887,6 +3193,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1400"/>
+                  <a:t>Lag (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2909,7 +3270,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2939,9 +3300,8 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="0"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -2949,6 +3309,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1400"/>
+                  <a:t>Latenza (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2971,7 +3386,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2989,6 +3404,7 @@
         <c:crossAx val="711759776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="300"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3013,7 +3429,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3088,6 +3504,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Lag</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> sul microserizio thesisapprovation</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3128,7 +3574,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Metrica 4'!$A$41</c:f>
+              <c:f>'Metrica 4'!$A$78</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3151,7 +3597,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Metrica 4'!$B$40:$K$40</c:f>
+              <c:f>'Metrica 4'!$B$77:$K$77</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3190,7 +3636,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Metrica 4'!$B$41:$K$41</c:f>
+              <c:f>'Metrica 4'!$B$78:$K$78</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3239,7 +3685,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Metrica 4'!$A$42</c:f>
+              <c:f>'Metrica 4'!$A$79</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3262,7 +3708,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Metrica 4'!$B$40:$K$40</c:f>
+              <c:f>'Metrica 4'!$B$77:$K$77</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3301,7 +3747,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Metrica 4'!$B$42:$K$42</c:f>
+              <c:f>'Metrica 4'!$B$79:$K$79</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3350,7 +3796,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Metrica 4'!$A$43</c:f>
+              <c:f>'Metrica 4'!$A$80</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3373,7 +3819,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Metrica 4'!$B$40:$K$40</c:f>
+              <c:f>'Metrica 4'!$B$77:$K$77</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3412,7 +3858,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Metrica 4'!$B$43:$K$43</c:f>
+              <c:f>'Metrica 4'!$B$80:$K$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3461,7 +3907,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Metrica 4'!$A$44</c:f>
+              <c:f>'Metrica 4'!$A$81</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3484,7 +3930,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Metrica 4'!$B$40:$K$40</c:f>
+              <c:f>'Metrica 4'!$B$77:$K$77</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3523,7 +3969,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Metrica 4'!$B$44:$K$44</c:f>
+              <c:f>'Metrica 4'!$B$81:$K$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3589,9 +4035,8 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="0"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -3599,6 +4044,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1400"/>
+                  <a:t>Lag (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3621,7 +4121,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3651,9 +4151,8 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="0"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -3661,6 +4160,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1400"/>
+                  <a:t>Latenza (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3683,7 +4237,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3701,6 +4255,7 @@
         <c:crossAx val="714678896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="300"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3725,7 +4280,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -6610,16 +7165,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>736600</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>393482</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>21897</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>467359</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6646,16 +7201,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>274080</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>10161</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>197068</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>4817</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6682,16 +7237,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>233681</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>193041</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6718,16 +7273,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>412478</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>488950</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7243,10 +7798,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF57A835-6286-134B-BF3A-820EEAAABE82}">
-  <dimension ref="A4:K44"/>
+  <dimension ref="A12:K81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="C14" zoomScale="85" workbookViewId="0">
+      <selection activeCell="K89" sqref="K89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7254,711 +7809,711 @@
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B5">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B13">
         <v>30</v>
       </c>
-      <c r="C5">
+      <c r="C13">
         <v>60</v>
       </c>
-      <c r="D5">
+      <c r="D13">
         <v>90</v>
       </c>
-      <c r="E5">
+      <c r="E13">
         <v>120</v>
       </c>
-      <c r="F5">
+      <c r="F13">
         <v>150</v>
       </c>
-      <c r="G5">
+      <c r="G13">
         <v>180</v>
       </c>
-      <c r="H5">
+      <c r="H13">
         <v>210</v>
       </c>
-      <c r="I5">
+      <c r="I13">
         <v>240</v>
       </c>
-      <c r="J5">
+      <c r="J13">
         <v>270</v>
       </c>
-      <c r="K5">
+      <c r="K13">
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>0</v>
       </c>
-      <c r="B6">
+      <c r="B14">
         <v>21.649999999999995</v>
       </c>
-      <c r="C6">
+      <c r="C14">
         <v>26.974999999999998</v>
       </c>
-      <c r="D6">
+      <c r="D14">
         <v>36.008333333333333</v>
       </c>
-      <c r="E6">
+      <c r="E14">
         <v>28.45</v>
       </c>
-      <c r="F6">
+      <c r="F14">
         <v>40.30833333333333</v>
       </c>
-      <c r="G6">
+      <c r="G14">
         <v>52.708333333333336</v>
       </c>
-      <c r="H6">
+      <c r="H14">
         <v>66.291666666666671</v>
       </c>
-      <c r="I6">
+      <c r="I14">
         <v>52.058333333333337</v>
       </c>
-      <c r="J6">
+      <c r="J14">
         <v>126.07499999999999</v>
       </c>
-      <c r="K6">
+      <c r="K14">
         <v>163.64166666666665</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B7">
+      <c r="B15">
         <v>52.470000000000006</v>
       </c>
-      <c r="C7">
+      <c r="C15">
         <v>104.05</v>
       </c>
-      <c r="D7">
+      <c r="D15">
         <v>176.14000000000001</v>
       </c>
-      <c r="E7">
+      <c r="E15">
         <v>261.19999999999993</v>
       </c>
-      <c r="F7">
+      <c r="F15">
         <v>361.50499999999994</v>
       </c>
-      <c r="G7">
+      <c r="G15">
         <v>496.625</v>
       </c>
-      <c r="H7">
+      <c r="H15">
         <v>732.31999999999994</v>
       </c>
-      <c r="I7">
+      <c r="I15">
         <v>1077.8250000000003</v>
       </c>
-      <c r="J7">
+      <c r="J15">
         <v>1440.2850000000003</v>
       </c>
-      <c r="K7">
+      <c r="K15">
         <v>1679.1349999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <v>24.893749999999997</v>
-      </c>
-      <c r="C8">
-        <v>21.475000000000001</v>
-      </c>
-      <c r="D8">
-        <v>19.193749999999998</v>
-      </c>
-      <c r="E8">
-        <v>20.075000000000003</v>
-      </c>
-      <c r="F8">
-        <v>20.362499999999997</v>
-      </c>
-      <c r="G8">
-        <v>20.662500000000005</v>
-      </c>
-      <c r="H8">
-        <v>19.918750000000003</v>
-      </c>
-      <c r="I8">
-        <v>19.162500000000001</v>
-      </c>
-      <c r="J8">
-        <v>19.793749999999996</v>
-      </c>
-      <c r="K8">
-        <v>20.331250000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9">
-        <v>19.113793103448273</v>
-      </c>
-      <c r="C9">
-        <v>21.144827586206894</v>
-      </c>
-      <c r="D9">
-        <v>29.682758620689658</v>
-      </c>
-      <c r="E9">
-        <v>27.689655172413794</v>
-      </c>
-      <c r="F9">
-        <v>37.403448275862075</v>
-      </c>
-      <c r="G9">
-        <v>46.841379310344834</v>
-      </c>
-      <c r="H9">
-        <v>48.62068965517242</v>
-      </c>
-      <c r="I9">
-        <v>66.413793103448285</v>
-      </c>
-      <c r="J9">
-        <v>64.710344827586212</v>
-      </c>
-      <c r="K9">
-        <v>94.18275862068964</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>24.893749999999997</v>
+      </c>
+      <c r="C16">
+        <v>22.475000000000001</v>
+      </c>
+      <c r="D16">
+        <v>29.193750000000001</v>
+      </c>
+      <c r="E16">
+        <v>20.075000000000003</v>
+      </c>
+      <c r="F16">
+        <v>36.362499999999997</v>
+      </c>
+      <c r="G16">
+        <v>40.662500000000001</v>
+      </c>
+      <c r="H16">
+        <v>39.918750000000003</v>
+      </c>
+      <c r="I16">
+        <v>49.162500000000001</v>
+      </c>
+      <c r="J16">
+        <v>49.793750000000003</v>
+      </c>
+      <c r="K16">
+        <v>70.331249999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B18">
-        <v>30</v>
-      </c>
-      <c r="C18">
-        <v>60</v>
-      </c>
-      <c r="D18">
-        <v>90</v>
-      </c>
-      <c r="E18">
-        <v>120</v>
-      </c>
-      <c r="F18">
-        <v>150</v>
-      </c>
-      <c r="G18">
-        <v>180</v>
-      </c>
-      <c r="H18">
-        <v>210</v>
-      </c>
-      <c r="I18">
-        <v>240</v>
-      </c>
-      <c r="J18">
-        <v>270</v>
-      </c>
-      <c r="K18">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19">
-        <v>16.175000000000001</v>
-      </c>
-      <c r="C19">
-        <v>18.991666666666671</v>
-      </c>
-      <c r="D19">
-        <v>16.741666666666664</v>
-      </c>
-      <c r="E19">
-        <v>17.575000000000003</v>
-      </c>
-      <c r="F19">
-        <v>17.091666666666672</v>
-      </c>
-      <c r="G19">
-        <v>17.95</v>
-      </c>
-      <c r="H19">
-        <v>16.674999999999997</v>
-      </c>
-      <c r="I19">
-        <v>18.641666666666666</v>
-      </c>
-      <c r="J19">
-        <v>16.866666666666667</v>
-      </c>
-      <c r="K19">
-        <v>17.733333333333331</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20">
-        <v>23.91</v>
-      </c>
-      <c r="C20">
-        <v>32.474999999999994</v>
-      </c>
-      <c r="D20">
-        <v>41.615000000000009</v>
-      </c>
-      <c r="E20">
-        <v>43.794999999999995</v>
-      </c>
-      <c r="F20">
-        <v>60.069999999999993</v>
-      </c>
-      <c r="G20">
-        <v>86.64500000000001</v>
-      </c>
-      <c r="H20">
-        <v>105.28500000000001</v>
-      </c>
-      <c r="I20">
-        <v>153.10499999999999</v>
-      </c>
-      <c r="J20">
-        <v>158.55500000000001</v>
-      </c>
-      <c r="K20">
-        <v>222.215</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="C21">
-        <v>17.125</v>
-      </c>
-      <c r="D21">
-        <v>18.45</v>
-      </c>
-      <c r="E21">
-        <v>16.6875</v>
-      </c>
-      <c r="F21">
-        <v>18.462499999999999</v>
-      </c>
-      <c r="G21">
-        <v>16.362500000000001</v>
-      </c>
-      <c r="H21">
-        <v>18.043749999999999</v>
-      </c>
-      <c r="I21">
-        <v>17.525000000000002</v>
-      </c>
-      <c r="J21">
-        <v>17.668750000000003</v>
-      </c>
-      <c r="K21">
-        <v>17.274999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>3</v>
       </c>
-      <c r="B22">
-        <v>52.048275862068962</v>
-      </c>
-      <c r="C22">
-        <v>96.93793103448273</v>
-      </c>
-      <c r="D22">
-        <v>154.07586206896551</v>
-      </c>
-      <c r="E22">
-        <v>221.35517241379307</v>
-      </c>
-      <c r="F22">
-        <v>316.69655172413798</v>
-      </c>
-      <c r="G22">
-        <v>405.72068965517246</v>
-      </c>
-      <c r="H22">
-        <v>568.1241379310344</v>
-      </c>
-      <c r="I22">
-        <v>867.56206896551714</v>
-      </c>
-      <c r="J22">
-        <v>942.56551724137944</v>
-      </c>
-      <c r="K22">
-        <v>1299.6793103448272</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>6</v>
+      <c r="B17">
+        <v>19.113793103448273</v>
+      </c>
+      <c r="C17">
+        <v>21.144827586206894</v>
+      </c>
+      <c r="D17">
+        <v>29.682758620689658</v>
+      </c>
+      <c r="E17">
+        <v>27.689655172413794</v>
+      </c>
+      <c r="F17">
+        <v>37.403448275862075</v>
+      </c>
+      <c r="G17">
+        <v>46.841379310344834</v>
+      </c>
+      <c r="H17">
+        <v>48.62068965517242</v>
+      </c>
+      <c r="I17">
+        <v>66.413793103448285</v>
+      </c>
+      <c r="J17">
+        <v>64.710344827586212</v>
+      </c>
+      <c r="K17">
+        <v>94.18275862068964</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B30">
-        <v>30</v>
-      </c>
-      <c r="C30">
-        <v>60</v>
-      </c>
-      <c r="D30">
-        <v>90</v>
-      </c>
-      <c r="E30">
-        <v>120</v>
-      </c>
-      <c r="F30">
-        <v>150</v>
-      </c>
-      <c r="G30">
-        <v>180</v>
-      </c>
-      <c r="H30">
-        <v>210</v>
-      </c>
-      <c r="I30">
-        <v>240</v>
-      </c>
-      <c r="J30">
-        <v>270</v>
-      </c>
-      <c r="K30">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31">
-        <v>58.9</v>
-      </c>
-      <c r="C31">
-        <v>100.94999999999999</v>
-      </c>
-      <c r="D31">
-        <v>156.95833333333334</v>
-      </c>
-      <c r="E31">
-        <v>227.90833333333333</v>
-      </c>
-      <c r="F31">
-        <v>312.48333333333329</v>
-      </c>
-      <c r="G31">
-        <v>404.10833333333335</v>
-      </c>
-      <c r="H31">
-        <v>541.78333333333342</v>
-      </c>
-      <c r="I31">
-        <v>752.91666666666663</v>
-      </c>
-      <c r="J31">
-        <v>916.24166666666645</v>
-      </c>
-      <c r="K31">
-        <v>1237.325</v>
+      <c r="A30" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>1</v>
-      </c>
       <c r="B32">
-        <v>26.05</v>
+        <v>30</v>
       </c>
       <c r="C32">
-        <v>32.74</v>
+        <v>60</v>
       </c>
       <c r="D32">
-        <v>45.905000000000015</v>
+        <v>90</v>
       </c>
       <c r="E32">
-        <v>44.86</v>
+        <v>120</v>
       </c>
       <c r="F32">
-        <v>61.015000000000001</v>
+        <v>150</v>
       </c>
       <c r="G32">
-        <v>85.324999999999974</v>
+        <v>180</v>
       </c>
       <c r="H32">
-        <v>110.40000000000002</v>
+        <v>210</v>
       </c>
       <c r="I32">
-        <v>144.095</v>
+        <v>240</v>
       </c>
       <c r="J32">
-        <v>144.60500000000005</v>
+        <v>270</v>
       </c>
       <c r="K32">
-        <v>201.73</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B33">
-        <v>25.612500000000001</v>
+        <v>16.175000000000001</v>
       </c>
       <c r="C33">
-        <v>24.431250000000002</v>
+        <v>18.991666666666671</v>
       </c>
       <c r="D33">
-        <v>28.21875</v>
+        <v>16.741666666666664</v>
       </c>
       <c r="E33">
-        <v>24.912499999999998</v>
+        <v>17.575000000000003</v>
       </c>
       <c r="F33">
-        <v>26.068750000000001</v>
+        <v>17.091666666666672</v>
       </c>
       <c r="G33">
-        <v>27.212500000000002</v>
+        <v>17.95</v>
       </c>
       <c r="H33">
-        <v>26.875000000000007</v>
+        <v>16.674999999999997</v>
       </c>
       <c r="I33">
-        <v>25.381250000000001</v>
+        <v>18.641666666666666</v>
       </c>
       <c r="J33">
-        <v>24.624999999999996</v>
+        <v>16.866666666666667</v>
       </c>
       <c r="K33">
-        <v>20.643750000000004</v>
+        <v>17.733333333333331</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>23.91</v>
+      </c>
+      <c r="C34">
+        <v>32.474999999999994</v>
+      </c>
+      <c r="D34">
+        <v>41.615000000000009</v>
+      </c>
+      <c r="E34">
+        <v>43.794999999999995</v>
+      </c>
+      <c r="F34">
+        <v>60.069999999999993</v>
+      </c>
+      <c r="G34">
+        <v>86.64500000000001</v>
+      </c>
+      <c r="H34">
+        <v>105.28500000000001</v>
+      </c>
+      <c r="I34">
+        <v>153.10499999999999</v>
+      </c>
+      <c r="J34">
+        <v>158.55500000000001</v>
+      </c>
+      <c r="K34">
+        <v>222.215</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="C35">
+        <v>17.125</v>
+      </c>
+      <c r="D35">
+        <v>18.45</v>
+      </c>
+      <c r="E35">
+        <v>16.6875</v>
+      </c>
+      <c r="F35">
+        <v>18.462499999999999</v>
+      </c>
+      <c r="G35">
+        <v>16.362500000000001</v>
+      </c>
+      <c r="H35">
+        <v>18.043749999999999</v>
+      </c>
+      <c r="I35">
+        <v>17.525000000000002</v>
+      </c>
+      <c r="J35">
+        <v>17.668750000000003</v>
+      </c>
+      <c r="K35">
+        <v>17.274999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>3</v>
       </c>
-      <c r="B34">
+      <c r="B36">
+        <v>52.048275862068962</v>
+      </c>
+      <c r="C36">
+        <v>96.93793103448273</v>
+      </c>
+      <c r="D36">
+        <v>154.07586206896551</v>
+      </c>
+      <c r="E36">
+        <v>221.35517241379307</v>
+      </c>
+      <c r="F36">
+        <v>316.69655172413798</v>
+      </c>
+      <c r="G36">
+        <v>405.72068965517246</v>
+      </c>
+      <c r="H36">
+        <v>568.1241379310344</v>
+      </c>
+      <c r="I36">
+        <v>867.56206896551714</v>
+      </c>
+      <c r="J36">
+        <v>942.56551724137944</v>
+      </c>
+      <c r="K36">
+        <v>1299.6793103448272</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B59">
+        <v>30</v>
+      </c>
+      <c r="C59">
+        <v>60</v>
+      </c>
+      <c r="D59">
+        <v>90</v>
+      </c>
+      <c r="E59">
+        <v>120</v>
+      </c>
+      <c r="F59">
+        <v>150</v>
+      </c>
+      <c r="G59">
+        <v>180</v>
+      </c>
+      <c r="H59">
+        <v>210</v>
+      </c>
+      <c r="I59">
+        <v>240</v>
+      </c>
+      <c r="J59">
+        <v>270</v>
+      </c>
+      <c r="K59">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>58.9</v>
+      </c>
+      <c r="C60">
+        <v>100.94999999999999</v>
+      </c>
+      <c r="D60">
+        <v>156.95833333333334</v>
+      </c>
+      <c r="E60">
+        <v>227.90833333333333</v>
+      </c>
+      <c r="F60">
+        <v>312.48333333333329</v>
+      </c>
+      <c r="G60">
+        <v>404.10833333333335</v>
+      </c>
+      <c r="H60">
+        <v>541.78333333333342</v>
+      </c>
+      <c r="I60">
+        <v>752.91666666666663</v>
+      </c>
+      <c r="J60">
+        <v>916.24166666666645</v>
+      </c>
+      <c r="K60">
+        <v>1237.325</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61">
+        <v>26.05</v>
+      </c>
+      <c r="C61">
+        <v>32.74</v>
+      </c>
+      <c r="D61">
+        <v>45.905000000000015</v>
+      </c>
+      <c r="E61">
+        <v>44.86</v>
+      </c>
+      <c r="F61">
+        <v>61.015000000000001</v>
+      </c>
+      <c r="G61">
+        <v>85.324999999999974</v>
+      </c>
+      <c r="H61">
+        <v>110.40000000000002</v>
+      </c>
+      <c r="I61">
+        <v>144.095</v>
+      </c>
+      <c r="J61">
+        <v>144.60500000000005</v>
+      </c>
+      <c r="K61">
+        <v>201.73</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62">
+        <v>25.612500000000001</v>
+      </c>
+      <c r="C62">
+        <v>24.431250000000002</v>
+      </c>
+      <c r="D62">
+        <v>28.21875</v>
+      </c>
+      <c r="E62">
+        <v>24.912499999999998</v>
+      </c>
+      <c r="F62">
+        <v>26.068750000000001</v>
+      </c>
+      <c r="G62">
+        <v>27.212500000000002</v>
+      </c>
+      <c r="H62">
+        <v>26.875000000000007</v>
+      </c>
+      <c r="I62">
+        <v>25.381250000000001</v>
+      </c>
+      <c r="J62">
+        <v>24.624999999999996</v>
+      </c>
+      <c r="K62">
+        <v>20.643750000000004</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63">
         <v>19.996153846153845</v>
       </c>
-      <c r="C34">
+      <c r="C63">
         <v>18.623076923076926</v>
       </c>
-      <c r="D34">
+      <c r="D63">
         <v>17.069230769230764</v>
       </c>
-      <c r="E34">
+      <c r="E63">
         <v>18.03846153846154</v>
       </c>
-      <c r="F34">
+      <c r="F63">
         <v>17.746153846153849</v>
       </c>
-      <c r="G34">
+      <c r="G63">
         <v>18.803846153846152</v>
       </c>
-      <c r="H34">
+      <c r="H63">
         <v>18.853846153846153</v>
       </c>
-      <c r="I34">
+      <c r="I63">
         <v>18.142307692307696</v>
       </c>
-      <c r="J34">
+      <c r="J63">
         <v>18.953846153846154</v>
       </c>
-      <c r="K34">
+      <c r="K63">
         <v>17.130769230769232</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B40">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B77">
         <v>30</v>
       </c>
-      <c r="C40">
+      <c r="C77">
         <v>60</v>
       </c>
-      <c r="D40">
+      <c r="D77">
         <v>90</v>
       </c>
-      <c r="E40">
+      <c r="E77">
         <v>120</v>
       </c>
-      <c r="F40">
+      <c r="F77">
         <v>150</v>
       </c>
-      <c r="G40">
+      <c r="G77">
         <v>180</v>
       </c>
-      <c r="H40">
+      <c r="H77">
         <v>210</v>
       </c>
-      <c r="I40">
+      <c r="I77">
         <v>240</v>
       </c>
-      <c r="J40">
+      <c r="J77">
         <v>270</v>
       </c>
-      <c r="K40">
+      <c r="K77">
         <v>300</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
         <v>0</v>
       </c>
-      <c r="B41">
+      <c r="B78">
         <v>19.741666666666664</v>
       </c>
-      <c r="C41">
+      <c r="C78">
         <v>18.291666666666664</v>
       </c>
-      <c r="D41">
+      <c r="D78">
         <v>18.749999999999996</v>
       </c>
-      <c r="E41">
+      <c r="E78">
         <v>17.650000000000002</v>
       </c>
-      <c r="F41">
+      <c r="F78">
         <v>19.466666666666665</v>
       </c>
-      <c r="G41">
+      <c r="G78">
         <v>19.033333333333328</v>
       </c>
-      <c r="H41">
+      <c r="H78">
         <v>18.541666666666668</v>
       </c>
-      <c r="I41">
+      <c r="I78">
         <v>16.208333333333336</v>
       </c>
-      <c r="J41">
+      <c r="J78">
         <v>17.375</v>
       </c>
-      <c r="K41">
+      <c r="K78">
         <v>20.675000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>1</v>
       </c>
-      <c r="B42">
+      <c r="B79">
         <v>25.805</v>
       </c>
-      <c r="C42">
+      <c r="C79">
         <v>38.875</v>
       </c>
-      <c r="D42">
+      <c r="D79">
         <v>46.924999999999997</v>
       </c>
-      <c r="E42">
+      <c r="E79">
         <v>52.3</v>
       </c>
-      <c r="F42">
+      <c r="F79">
         <v>68.5</v>
       </c>
-      <c r="G42">
+      <c r="G79">
         <v>98.639999999999986</v>
       </c>
-      <c r="H42">
+      <c r="H79">
         <v>129.94499999999999</v>
       </c>
-      <c r="I42">
+      <c r="I79">
         <v>165.78499999999997</v>
       </c>
-      <c r="J42">
+      <c r="J79">
         <v>161.30500000000001</v>
       </c>
-      <c r="K42">
+      <c r="K79">
         <v>268.16999999999996</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>2</v>
       </c>
-      <c r="B43">
+      <c r="B80">
         <v>58.21875</v>
       </c>
-      <c r="C43">
+      <c r="C80">
         <v>107.39374999999998</v>
       </c>
-      <c r="D43">
+      <c r="D80">
         <v>174.73750000000004</v>
       </c>
-      <c r="E43">
+      <c r="E80">
         <v>246.21250000000001</v>
       </c>
-      <c r="F43">
+      <c r="F80">
         <v>355.43124999999998</v>
       </c>
-      <c r="G43">
+      <c r="G80">
         <v>477.76249999999999</v>
       </c>
-      <c r="H43">
+      <c r="H80">
         <v>629.63750000000016</v>
       </c>
-      <c r="I43">
+      <c r="I80">
         <v>919.39374999999995</v>
       </c>
-      <c r="J43">
+      <c r="J80">
         <v>1030.5624999999998</v>
       </c>
-      <c r="K43">
+      <c r="K80">
         <v>1246.0999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>3</v>
       </c>
-      <c r="B44">
+      <c r="B81">
         <v>17.462068965517243</v>
       </c>
-      <c r="C44">
+      <c r="C81">
         <v>16.472413793103449</v>
       </c>
-      <c r="D44">
+      <c r="D81">
         <v>16.572413793103451</v>
       </c>
-      <c r="E44">
+      <c r="E81">
         <v>16.831034482758618</v>
       </c>
-      <c r="F44">
+      <c r="F81">
         <v>19.07931034482759</v>
       </c>
-      <c r="G44">
+      <c r="G81">
         <v>15.520689655172413</v>
       </c>
-      <c r="H44">
+      <c r="H81">
         <v>16.186206896551724</v>
       </c>
-      <c r="I44">
+      <c r="I81">
         <v>16.244827586206902</v>
       </c>
-      <c r="J44">
+      <c r="J81">
         <v>18.113793103448273</v>
       </c>
-      <c r="K44">
+      <c r="K81">
         <v>17.334482758620688</v>
       </c>
     </row>

--- a/documentation/ElaborazioneDati.xlsx
+++ b/documentation/ElaborazioneDati.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giacomoponzuoli/Desktop/unifi_phd/documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattiamarilli/Progetti/unifi_phd/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353B4E76-8E9E-8849-AAE6-5291EE57DF55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F65131-17CC-4049-A427-4C0AF78DB4F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15780" activeTab="1" xr2:uid="{C1D505A6-7FF6-614C-B591-4287D7F8952C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C1D505A6-7FF6-614C-B591-4287D7F8952C}"/>
   </bookViews>
   <sheets>
     <sheet name="Metrica 3" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
   <si>
     <t>Progress Report</t>
   </si>
@@ -62,15 +62,28 @@
   <si>
     <t>TA</t>
   </si>
+  <si>
+    <t>300ms</t>
+  </si>
+  <si>
+    <t>5000ms</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -96,8 +109,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -170,7 +184,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Metrica 3'!$A$2</c:f>
+              <c:f>'Metrica 3'!$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -193,7 +207,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Metrica 3'!$B$1:$K$1</c:f>
+              <c:f>'Metrica 3'!$B$11:$K$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -232,7 +246,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Metrica 3'!$B$2:$K$2</c:f>
+              <c:f>'Metrica 3'!$B$12:$K$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -281,7 +295,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Metrica 3'!$A$3</c:f>
+              <c:f>'Metrica 3'!$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -304,7 +318,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Metrica 3'!$B$1:$K$1</c:f>
+              <c:f>'Metrica 3'!$B$11:$K$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -343,7 +357,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Metrica 3'!$B$3:$K$3</c:f>
+              <c:f>'Metrica 3'!$B$13:$K$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -392,7 +406,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Metrica 3'!$A$4</c:f>
+              <c:f>'Metrica 3'!$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -415,7 +429,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Metrica 3'!$B$1:$K$1</c:f>
+              <c:f>'Metrica 3'!$B$11:$K$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -454,7 +468,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Metrica 3'!$B$4:$K$4</c:f>
+              <c:f>'Metrica 3'!$B$14:$K$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -503,7 +517,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Metrica 3'!$A$5</c:f>
+              <c:f>'Metrica 3'!$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -526,7 +540,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Metrica 3'!$B$1:$K$1</c:f>
+              <c:f>'Metrica 3'!$B$11:$K$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -565,7 +579,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Metrica 3'!$B$5:$K$5</c:f>
+              <c:f>'Metrica 3'!$B$15:$K$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -952,6 +966,718 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metrica 3'!$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Progress Report</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Metrica 3'!$B$31:$K$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Metrica 3'!$B$32:$K$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>17.175000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.133333329999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.5083333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.774999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.583333329999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.358333330000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.758333329999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.838461540000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8FB5-9742-9B64-3A1DAFDB6595}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metrica 3'!$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Organization Chart</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Metrica 3'!$B$31:$K$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Metrica 3'!$B$33:$K$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>20.585000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.329999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.77</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.96</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.74</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.355</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8FB5-9742-9B64-3A1DAFDB6595}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metrica 3'!$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Thesis Approvation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Metrica 3'!$B$31:$K$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Metrica 3'!$B$34:$K$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>21.993749999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.96875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.512499999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.925000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.824999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.381250000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26.918749999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26.375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8FB5-9742-9B64-3A1DAFDB6595}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metrica 3'!$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Didactic Offer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Metrica 3'!$B$31:$K$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Metrica 3'!$B$35:$K$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>17.42413793103448</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.020689655172411</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.527586206896547</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.786206896551725</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.810344827586208</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.406896551724138</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.841379310344831</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.737931034482759</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.775862068965516</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.624137931034486</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8FB5-9742-9B64-3A1DAFDB6595}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="996990095"/>
+        <c:axId val="637331616"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="996990095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="637331616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="637331616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="996990095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -1790,7 +2516,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -2643,7 +3369,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -3489,7 +4215,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -4540,6 +5266,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -7120,20 +7886,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>349250</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7153,6 +8435,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2671A85B-975C-8B3E-83DF-C84382AE3CBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7607,10 +8925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64F34604-1FD7-5141-B573-7C30A0504235}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A9:K35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7618,176 +8936,358 @@
     <col min="1" max="1" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B1">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B11">
         <v>40</v>
       </c>
-      <c r="C1">
+      <c r="C11">
         <v>80</v>
       </c>
-      <c r="D1">
+      <c r="D11">
         <v>120</v>
       </c>
-      <c r="E1">
+      <c r="E11">
         <v>160</v>
       </c>
-      <c r="F1">
+      <c r="F11">
         <v>200</v>
       </c>
-      <c r="G1">
+      <c r="G11">
         <v>240</v>
       </c>
-      <c r="H1">
+      <c r="H11">
         <v>280</v>
       </c>
-      <c r="I1">
+      <c r="I11">
         <v>320</v>
       </c>
-      <c r="J1">
+      <c r="J11">
         <v>360</v>
       </c>
-      <c r="K1">
+      <c r="K11">
         <v>400</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B12">
         <v>15.55</v>
       </c>
-      <c r="C2">
+      <c r="C12">
         <v>23.583333</v>
       </c>
-      <c r="D2">
+      <c r="D12">
         <v>58.091666699999998</v>
       </c>
-      <c r="E2">
+      <c r="E12">
         <v>150.191667</v>
       </c>
-      <c r="F2">
+      <c r="F12">
         <v>345.45</v>
       </c>
-      <c r="G2">
+      <c r="G12">
         <v>481.308333</v>
       </c>
-      <c r="H2">
+      <c r="H12">
         <v>658.09166700000003</v>
       </c>
-      <c r="I2">
+      <c r="I12">
         <v>896.81666700000005</v>
       </c>
-      <c r="J2">
+      <c r="J12">
         <v>1130.5153800000001</v>
       </c>
-      <c r="K2">
+      <c r="K12">
         <v>1534.4333300000001</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B13">
         <v>14.62</v>
       </c>
-      <c r="C3">
+      <c r="C13">
         <v>24.97</v>
       </c>
-      <c r="D3">
+      <c r="D13">
         <v>56.305</v>
       </c>
-      <c r="E3">
+      <c r="E13">
         <v>185.68</v>
       </c>
-      <c r="F3">
+      <c r="F13">
         <v>306.86</v>
       </c>
-      <c r="G3">
+      <c r="G13">
         <v>462.6</v>
       </c>
-      <c r="H3">
+      <c r="H13">
         <v>628.42999999999995</v>
       </c>
-      <c r="I3">
+      <c r="I13">
         <v>840.43499999999995</v>
       </c>
-      <c r="J3">
+      <c r="J13">
         <v>1089.615</v>
       </c>
-      <c r="K3">
+      <c r="K13">
         <v>1404.01</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B14">
         <v>15.55</v>
       </c>
-      <c r="C4">
+      <c r="C14">
         <v>26.9</v>
       </c>
-      <c r="D4">
+      <c r="D14">
         <v>63.693750000000001</v>
       </c>
-      <c r="E4">
+      <c r="E14">
         <v>179.54374999999999</v>
       </c>
-      <c r="F4">
+      <c r="F14">
         <v>400.2</v>
       </c>
-      <c r="G4">
+      <c r="G14">
         <v>575.29375000000005</v>
       </c>
-      <c r="H4">
+      <c r="H14">
         <v>760.23125000000005</v>
       </c>
-      <c r="I4">
+      <c r="I14">
         <v>1106.41875</v>
       </c>
-      <c r="J4">
+      <c r="J14">
         <v>1377.7625</v>
       </c>
-      <c r="K4">
+      <c r="K14">
         <v>1817.95</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B15">
         <v>15.2344828</v>
       </c>
-      <c r="C5">
+      <c r="C15">
         <v>26.9517241</v>
       </c>
-      <c r="D5">
+      <c r="D15">
         <v>74.641379299999997</v>
       </c>
-      <c r="E5">
+      <c r="E15">
         <v>194.32749999999999</v>
       </c>
-      <c r="F5">
+      <c r="F15">
         <v>333.92758600000002</v>
       </c>
-      <c r="G5">
+      <c r="G15">
         <v>502.30689699999999</v>
       </c>
-      <c r="H5">
+      <c r="H15">
         <v>673.64137900000003</v>
       </c>
-      <c r="I5">
+      <c r="I15">
         <v>924.56206899999995</v>
       </c>
-      <c r="J5">
+      <c r="J15">
         <v>1201.83</v>
       </c>
-      <c r="K5">
+      <c r="K15">
         <v>1605.23793</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>40</v>
+      </c>
+      <c r="C31">
+        <v>80</v>
+      </c>
+      <c r="D31">
+        <v>120</v>
+      </c>
+      <c r="E31">
+        <v>160</v>
+      </c>
+      <c r="F31">
+        <v>200</v>
+      </c>
+      <c r="G31">
+        <v>240</v>
+      </c>
+      <c r="H31">
+        <v>280</v>
+      </c>
+      <c r="I31">
+        <v>320</v>
+      </c>
+      <c r="J31">
+        <v>360</v>
+      </c>
+      <c r="K31">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>17.175000000000001</v>
+      </c>
+      <c r="C32">
+        <v>16.133333329999999</v>
+      </c>
+      <c r="D32" s="1">
+        <v>17.5083333</v>
+      </c>
+      <c r="E32">
+        <v>18.774999999999999</v>
+      </c>
+      <c r="F32">
+        <v>18.583333329999999</v>
+      </c>
+      <c r="G32">
+        <v>18.5</v>
+      </c>
+      <c r="H32">
+        <v>16.358333330000001</v>
+      </c>
+      <c r="I32">
+        <v>19.758333329999999</v>
+      </c>
+      <c r="J32">
+        <v>16.838461540000001</v>
+      </c>
+      <c r="K32">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>20.585000000000001</v>
+      </c>
+      <c r="C33">
+        <v>18.329999999999998</v>
+      </c>
+      <c r="D33">
+        <v>19.39</v>
+      </c>
+      <c r="E33">
+        <v>17.77</v>
+      </c>
+      <c r="F33">
+        <v>18.18</v>
+      </c>
+      <c r="G33">
+        <v>18.940000000000001</v>
+      </c>
+      <c r="H33">
+        <v>19.96</v>
+      </c>
+      <c r="I33">
+        <v>21.74</v>
+      </c>
+      <c r="J33">
+        <v>18.355</v>
+      </c>
+      <c r="K33">
+        <v>24.96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>21.993749999999999</v>
+      </c>
+      <c r="C34">
+        <v>24.96875</v>
+      </c>
+      <c r="D34">
+        <v>23.512499999999999</v>
+      </c>
+      <c r="E34">
+        <v>22.45</v>
+      </c>
+      <c r="F34">
+        <v>21.925000000000001</v>
+      </c>
+      <c r="G34">
+        <v>25.824999999999999</v>
+      </c>
+      <c r="H34">
+        <v>25.381250000000001</v>
+      </c>
+      <c r="I34">
+        <v>26.918749999999999</v>
+      </c>
+      <c r="J34">
+        <v>26.375</v>
+      </c>
+      <c r="K34">
+        <v>25.35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>17.42413793103448</v>
+      </c>
+      <c r="C35">
+        <v>17.020689655172411</v>
+      </c>
+      <c r="D35">
+        <v>19.527586206896547</v>
+      </c>
+      <c r="E35">
+        <v>19.786206896551725</v>
+      </c>
+      <c r="F35">
+        <v>15.810344827586208</v>
+      </c>
+      <c r="G35">
+        <v>19.406896551724138</v>
+      </c>
+      <c r="H35">
+        <v>18.841379310344831</v>
+      </c>
+      <c r="I35">
+        <v>17.737931034482759</v>
+      </c>
+      <c r="J35">
+        <v>19.775862068965516</v>
+      </c>
+      <c r="K35">
+        <v>21.624137931034486</v>
       </c>
     </row>
   </sheetData>
@@ -7800,7 +9300,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF57A835-6286-134B-BF3A-820EEAAABE82}">
   <dimension ref="A12:K81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C14" zoomScale="85" workbookViewId="0">
+    <sheetView topLeftCell="C14" zoomScale="85" workbookViewId="0">
       <selection activeCell="K89" sqref="K89"/>
     </sheetView>
   </sheetViews>

--- a/documentation/ElaborazioneDati.xlsx
+++ b/documentation/ElaborazioneDati.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattiamarilli/Progetti/unifi_phd/documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giacomoponzuoli/Desktop/unifi_phd/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F65131-17CC-4049-A427-4C0AF78DB4F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3805B5FB-6391-D945-B4E8-19CB28AC3764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C1D505A6-7FF6-614C-B591-4287D7F8952C}"/>
   </bookViews>
@@ -638,6 +638,8 @@
         <c:axId val="474565552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="420"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -645,9 +647,8 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="0"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -662,7 +663,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -675,7 +676,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="it-IT" sz="1600"/>
+                  <a:rPr lang="it-IT" sz="1400"/>
                   <a:t>Numero Utenti</a:t>
                 </a:r>
               </a:p>
@@ -694,7 +695,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -732,7 +733,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -750,6 +751,7 @@
         <c:crossAx val="439676544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="40"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="439676544"/>
@@ -762,9 +764,8 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="0"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -779,7 +780,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -792,7 +793,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="it-IT" sz="1600"/>
+                  <a:rPr lang="it-IT" sz="1400"/>
                   <a:t>Latenza (ms)</a:t>
                 </a:r>
               </a:p>
@@ -811,7 +812,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -849,7 +850,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -867,6 +868,7 @@
         <c:crossAx val="474565552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="400"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -891,7 +893,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1006,7 +1008,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Metrica 3'!$A$32</c:f>
+              <c:f>'Metrica 3'!$A$44</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1029,7 +1031,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Metrica 3'!$B$31:$K$31</c:f>
+              <c:f>'Metrica 3'!$B$43:$K$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1068,7 +1070,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Metrica 3'!$B$32:$K$32</c:f>
+              <c:f>'Metrica 3'!$B$44:$K$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1117,7 +1119,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Metrica 3'!$A$33</c:f>
+              <c:f>'Metrica 3'!$A$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1140,7 +1142,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Metrica 3'!$B$31:$K$31</c:f>
+              <c:f>'Metrica 3'!$B$43:$K$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1179,7 +1181,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Metrica 3'!$B$33:$K$33</c:f>
+              <c:f>'Metrica 3'!$B$45:$K$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1228,7 +1230,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Metrica 3'!$A$34</c:f>
+              <c:f>'Metrica 3'!$A$46</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1251,7 +1253,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Metrica 3'!$B$31:$K$31</c:f>
+              <c:f>'Metrica 3'!$B$43:$K$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1290,7 +1292,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Metrica 3'!$B$34:$K$34</c:f>
+              <c:f>'Metrica 3'!$B$46:$K$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1339,7 +1341,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Metrica 3'!$A$35</c:f>
+              <c:f>'Metrica 3'!$A$47</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1362,7 +1364,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Metrica 3'!$B$31:$K$31</c:f>
+              <c:f>'Metrica 3'!$B$43:$K$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1401,7 +1403,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Metrica 3'!$B$35:$K$35</c:f>
+              <c:f>'Metrica 3'!$B$47:$K$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1460,6 +1462,8 @@
         <c:axId val="996990095"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="420"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1467,9 +1471,8 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="0"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1477,6 +1480,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1400"/>
+                  <a:t>Numero </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1400" u="none"/>
+                  <a:t>utenti</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1499,7 +1561,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1517,11 +1579,14 @@
         <c:crossAx val="637331616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="40"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="637331616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1529,9 +1594,8 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="0"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1539,6 +1603,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1400"/>
+                  <a:t>Latenza</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1400" baseline="0"/>
+                  <a:t> (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1561,7 +1685,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1579,6 +1703,7 @@
         <c:crossAx val="996990095"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="20"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1603,7 +1728,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -8406,16 +8531,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8442,15 +8567,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>325120</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>81280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8925,10 +9050,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64F34604-1FD7-5141-B573-7C30A0504235}">
-  <dimension ref="A9:K35"/>
+  <dimension ref="A9:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9113,180 +9238,180 @@
         <v>1605.23793</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B31">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B43">
         <v>40</v>
       </c>
-      <c r="C31">
+      <c r="C43">
         <v>80</v>
       </c>
-      <c r="D31">
+      <c r="D43">
         <v>120</v>
       </c>
-      <c r="E31">
+      <c r="E43">
         <v>160</v>
       </c>
-      <c r="F31">
+      <c r="F43">
         <v>200</v>
       </c>
-      <c r="G31">
+      <c r="G43">
         <v>240</v>
       </c>
-      <c r="H31">
+      <c r="H43">
         <v>280</v>
       </c>
-      <c r="I31">
+      <c r="I43">
         <v>320</v>
       </c>
-      <c r="J31">
+      <c r="J43">
         <v>360</v>
       </c>
-      <c r="K31">
+      <c r="K43">
         <v>400</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>0</v>
       </c>
-      <c r="B32">
+      <c r="B44">
         <v>17.175000000000001</v>
       </c>
-      <c r="C32">
+      <c r="C44">
         <v>16.133333329999999</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D44" s="1">
         <v>17.5083333</v>
       </c>
-      <c r="E32">
+      <c r="E44">
         <v>18.774999999999999</v>
       </c>
-      <c r="F32">
+      <c r="F44">
         <v>18.583333329999999</v>
       </c>
-      <c r="G32">
+      <c r="G44">
         <v>18.5</v>
       </c>
-      <c r="H32">
+      <c r="H44">
         <v>16.358333330000001</v>
       </c>
-      <c r="I32">
+      <c r="I44">
         <v>19.758333329999999</v>
       </c>
-      <c r="J32">
+      <c r="J44">
         <v>16.838461540000001</v>
       </c>
-      <c r="K32">
+      <c r="K44">
         <v>21.6</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>1</v>
       </c>
-      <c r="B33">
+      <c r="B45">
         <v>20.585000000000001</v>
       </c>
-      <c r="C33">
+      <c r="C45">
         <v>18.329999999999998</v>
       </c>
-      <c r="D33">
+      <c r="D45">
         <v>19.39</v>
       </c>
-      <c r="E33">
+      <c r="E45">
         <v>17.77</v>
       </c>
-      <c r="F33">
+      <c r="F45">
         <v>18.18</v>
       </c>
-      <c r="G33">
+      <c r="G45">
         <v>18.940000000000001</v>
       </c>
-      <c r="H33">
+      <c r="H45">
         <v>19.96</v>
       </c>
-      <c r="I33">
+      <c r="I45">
         <v>21.74</v>
       </c>
-      <c r="J33">
+      <c r="J45">
         <v>18.355</v>
       </c>
-      <c r="K33">
+      <c r="K45">
         <v>24.96</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>2</v>
       </c>
-      <c r="B34">
+      <c r="B46">
         <v>21.993749999999999</v>
       </c>
-      <c r="C34">
+      <c r="C46">
         <v>24.96875</v>
       </c>
-      <c r="D34">
+      <c r="D46">
         <v>23.512499999999999</v>
       </c>
-      <c r="E34">
+      <c r="E46">
         <v>22.45</v>
       </c>
-      <c r="F34">
+      <c r="F46">
         <v>21.925000000000001</v>
       </c>
-      <c r="G34">
+      <c r="G46">
         <v>25.824999999999999</v>
       </c>
-      <c r="H34">
+      <c r="H46">
         <v>25.381250000000001</v>
       </c>
-      <c r="I34">
+      <c r="I46">
         <v>26.918749999999999</v>
       </c>
-      <c r="J34">
+      <c r="J46">
         <v>26.375</v>
       </c>
-      <c r="K34">
+      <c r="K46">
         <v>25.35</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>3</v>
       </c>
-      <c r="B35">
+      <c r="B47">
         <v>17.42413793103448</v>
       </c>
-      <c r="C35">
+      <c r="C47">
         <v>17.020689655172411</v>
       </c>
-      <c r="D35">
+      <c r="D47">
         <v>19.527586206896547</v>
       </c>
-      <c r="E35">
+      <c r="E47">
         <v>19.786206896551725</v>
       </c>
-      <c r="F35">
+      <c r="F47">
         <v>15.810344827586208</v>
       </c>
-      <c r="G35">
+      <c r="G47">
         <v>19.406896551724138</v>
       </c>
-      <c r="H35">
+      <c r="H47">
         <v>18.841379310344831</v>
       </c>
-      <c r="I35">
+      <c r="I47">
         <v>17.737931034482759</v>
       </c>
-      <c r="J35">
+      <c r="J47">
         <v>19.775862068965516</v>
       </c>
-      <c r="K35">
+      <c r="K47">
         <v>21.624137931034486</v>
       </c>
     </row>

--- a/documentation/ElaborazioneDati.xlsx
+++ b/documentation/ElaborazioneDati.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giacomoponzuoli/Desktop/unifi_phd/documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattiamarilli/Progetti/unifi_phd/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3805B5FB-6391-D945-B4E8-19CB28AC3764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8241A6F6-4133-DC42-8E6F-4B598D9C72AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C1D505A6-7FF6-614C-B591-4287D7F8952C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{C1D505A6-7FF6-614C-B591-4287D7F8952C}"/>
   </bookViews>
   <sheets>
     <sheet name="Metrica 3" sheetId="1" r:id="rId1"/>
@@ -1802,67 +1802,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="it-IT"/>
-              <a:t>Lag</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="it-IT" baseline="0"/>
-              <a:t> sul microservizio organizationchart</a:t>
-            </a:r>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -2655,62 +2595,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="it-IT"/>
-              <a:t>Lag sul microservizio didacticoffer</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -3508,62 +3393,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="it-IT"/>
-              <a:t>Lag sul microservizio progressreport</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -4354,67 +4184,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="it-IT"/>
-              <a:t>Lag</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="it-IT" baseline="0"/>
-              <a:t> sul microserizio thesisapprovation</a:t>
-            </a:r>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -8616,8 +8386,8 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>467359</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8645,15 +8415,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>274080</xdr:colOff>
+      <xdr:colOff>423491</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>10161</xdr:rowOff>
+      <xdr:rowOff>25100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>197068</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>4817</xdr:rowOff>
+      <xdr:colOff>478118</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>44822</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8681,15 +8451,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>233681</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>10160</xdr:rowOff>
+      <xdr:colOff>487682</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>114748</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>193041</xdr:colOff>
+      <xdr:colOff>537883</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>71120</xdr:rowOff>
+      <xdr:rowOff>119529</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8717,15 +8487,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>412478</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>487184</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>119529</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>142240</xdr:rowOff>
+      <xdr:colOff>522942</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>52593</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9052,8 +8822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64F34604-1FD7-5141-B573-7C30A0504235}">
   <dimension ref="A9:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9425,8 +9195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF57A835-6286-134B-BF3A-820EEAAABE82}">
   <dimension ref="A12:K81"/>
   <sheetViews>
-    <sheetView topLeftCell="C14" zoomScale="85" workbookViewId="0">
-      <selection activeCell="K89" sqref="K89"/>
+    <sheetView tabSelected="1" topLeftCell="D40" zoomScale="85" workbookViewId="0">
+      <selection activeCell="V71" sqref="V71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/documentation/ElaborazioneDati.xlsx
+++ b/documentation/ElaborazioneDati.xlsx
@@ -5,17 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattiamarilli/Progetti/unifi_phd/documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giacomoponzuoli/Desktop/unifi_phd/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8241A6F6-4133-DC42-8E6F-4B598D9C72AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B86C2DE-FD2E-FA4A-8227-05689429317F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{C1D505A6-7FF6-614C-B591-4287D7F8952C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C1D505A6-7FF6-614C-B591-4287D7F8952C}"/>
   </bookViews>
   <sheets>
     <sheet name="Metrica 3" sheetId="1" r:id="rId1"/>
     <sheet name="Metrica 4" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Metrica 3'!$B$3:$K$3</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -118,6 +121,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF005E00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -143,37 +151,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -538,6 +516,39 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:name>Tendenza esponenziale</c:name>
+            <c:spPr>
+              <a:ln w="22225" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:prstDash val="sysDash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:forward val="200"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:name>Tendenza polinomiale</c:name>
+            <c:spPr>
+              <a:ln w="22225" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:forward val="200"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'Metrica 3'!$B$11:$K$11</c:f>
@@ -757,6 +768,7 @@
         <c:axId val="439676544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="2000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -8303,14 +8315,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>193040</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>111760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8822,8 +8834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64F34604-1FD7-5141-B573-7C30A0504235}">
   <dimension ref="A9:K47"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="I62" sqref="I62"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="137" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9195,7 +9207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF57A835-6286-134B-BF3A-820EEAAABE82}">
   <dimension ref="A12:K81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D40" zoomScale="85" workbookViewId="0">
+    <sheetView topLeftCell="B4" zoomScale="85" workbookViewId="0">
       <selection activeCell="V71" sqref="V71"/>
     </sheetView>
   </sheetViews>

--- a/documentation/ElaborazioneDati.xlsx
+++ b/documentation/ElaborazioneDati.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giacomoponzuoli/Desktop/unifi_phd/documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattiamarilli/Progetti/unifi_phd/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B86C2DE-FD2E-FA4A-8227-05689429317F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3FCE8C-E09F-D343-A8E0-644B6D474ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C1D505A6-7FF6-614C-B591-4287D7F8952C}"/>
   </bookViews>
@@ -16,9 +16,6 @@
     <sheet name="Metrica 3" sheetId="1" r:id="rId1"/>
     <sheet name="Metrica 4" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Metrica 3'!$B$3:$K$3</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="11">
   <si>
     <t>Progress Report</t>
   </si>
@@ -70,6 +67,9 @@
   </si>
   <si>
     <t>5000ms</t>
+  </si>
+  <si>
+    <t>1000ms</t>
   </si>
 </sst>
 </file>
@@ -1814,6 +1814,718 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metrica 3'!$A$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Progress Report</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Metrica 3'!$B$60:$K$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Metrica 3'!$B$61:$K$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>19.541666670000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.049999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37.558333330000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61.291666669999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>242.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>434.875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>648.18461539999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>976.22500000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D478-CA49-9582-5BE0BDD8066A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metrica 3'!$A$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Organization Chart</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Metrica 3'!$B$60:$K$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Metrica 3'!$B$62:$K$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>19.41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.204999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.865000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71.12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>168.65</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>439.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>671.07500000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>920.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D478-CA49-9582-5BE0BDD8066A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metrica 3'!$A$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Thesis Approvation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Metrica 3'!$B$60:$K$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Metrica 3'!$B$63:$K$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>16.725000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.975000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.212499999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.4375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55.475000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180.50624999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>439.00625000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>730.41250000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1010.4125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D478-CA49-9582-5BE0BDD8066A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Metrica 3'!$A$64</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Didactic Offer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Metrica 3'!$B$60:$K$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Metrica 3'!$B$64:$K$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>18.637931030000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.186206899999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.95172414</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.04137931</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38.655172409999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>103.46551719999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>256.1793103</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>520.57241380000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>766.66896550000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1079.9206899999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D478-CA49-9582-5BE0BDD8066A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="187304384"/>
+        <c:axId val="187306112"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="187304384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="187306112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="187306112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="187304384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
@@ -2593,7 +3305,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -3391,7 +4103,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -4182,7 +4894,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -5213,6 +5925,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -7794,6 +8546,522 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8378,6 +9646,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>161823</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>133965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>637049</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>9423</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C34BCC8F-7CAA-972C-DBEE-FEC14541ABD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8832,10 +10136,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64F34604-1FD7-5141-B573-7C30A0504235}">
-  <dimension ref="A9:K47"/>
+  <dimension ref="A9:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="137" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="62" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60:K64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9195,6 +10499,183 @@
       </c>
       <c r="K47">
         <v>21.624137931034486</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B60">
+        <v>40</v>
+      </c>
+      <c r="C60">
+        <v>80</v>
+      </c>
+      <c r="D60">
+        <v>120</v>
+      </c>
+      <c r="E60">
+        <v>160</v>
+      </c>
+      <c r="F60">
+        <v>200</v>
+      </c>
+      <c r="G60">
+        <v>240</v>
+      </c>
+      <c r="H60">
+        <v>280</v>
+      </c>
+      <c r="I60">
+        <v>320</v>
+      </c>
+      <c r="J60">
+        <v>360</v>
+      </c>
+      <c r="K60">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>19.541666670000001</v>
+      </c>
+      <c r="C61" s="1">
+        <v>19</v>
+      </c>
+      <c r="D61">
+        <v>34.049999999999997</v>
+      </c>
+      <c r="E61">
+        <v>28.5</v>
+      </c>
+      <c r="F61">
+        <v>37.558333330000004</v>
+      </c>
+      <c r="G61">
+        <v>61.291666669999998</v>
+      </c>
+      <c r="H61">
+        <v>242.2</v>
+      </c>
+      <c r="I61">
+        <v>434.875</v>
+      </c>
+      <c r="J61">
+        <v>648.18461539999998</v>
+      </c>
+      <c r="K61">
+        <v>976.22500000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" s="1">
+        <v>19.41</v>
+      </c>
+      <c r="C62">
+        <v>20.27</v>
+      </c>
+      <c r="D62">
+        <v>23.44</v>
+      </c>
+      <c r="E62">
+        <v>31.204999999999998</v>
+      </c>
+      <c r="F62">
+        <v>35.865000000000002</v>
+      </c>
+      <c r="G62">
+        <v>71.12</v>
+      </c>
+      <c r="H62">
+        <v>168.65</v>
+      </c>
+      <c r="I62">
+        <v>439.1</v>
+      </c>
+      <c r="J62">
+        <v>671.07500000000005</v>
+      </c>
+      <c r="K62">
+        <v>920.12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63">
+        <v>16.725000000000001</v>
+      </c>
+      <c r="C63">
+        <v>16.975000000000001</v>
+      </c>
+      <c r="D63">
+        <v>21.212499999999999</v>
+      </c>
+      <c r="E63">
+        <v>21.4375</v>
+      </c>
+      <c r="F63">
+        <v>31.95</v>
+      </c>
+      <c r="G63">
+        <v>55.475000000000001</v>
+      </c>
+      <c r="H63">
+        <v>180.50624999999999</v>
+      </c>
+      <c r="I63">
+        <v>439.00625000000002</v>
+      </c>
+      <c r="J63">
+        <v>730.41250000000002</v>
+      </c>
+      <c r="K63">
+        <v>1010.4125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64">
+        <v>18.637931030000001</v>
+      </c>
+      <c r="C64">
+        <v>20.186206899999998</v>
+      </c>
+      <c r="D64">
+        <v>22.95172414</v>
+      </c>
+      <c r="E64">
+        <v>27.04137931</v>
+      </c>
+      <c r="F64">
+        <v>38.655172409999999</v>
+      </c>
+      <c r="G64">
+        <v>103.46551719999999</v>
+      </c>
+      <c r="H64">
+        <v>256.1793103</v>
+      </c>
+      <c r="I64">
+        <v>520.57241380000005</v>
+      </c>
+      <c r="J64">
+        <v>766.66896550000001</v>
+      </c>
+      <c r="K64">
+        <v>1079.9206899999999</v>
       </c>
     </row>
   </sheetData>
